--- a/template/Template_Exel.xlsx
+++ b/template/Template_Exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luxary\Downloads\Github Projects\Luxary-92.github.io\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01629C-317D-43BC-B654-3CFE129EA637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0FDF05-2853-4E9E-95BB-1AFD5D305E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DA553CC-2D9D-4FDA-B2F1-697641A00C2C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Welcome page</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Days Worked</t>
+  </si>
+  <si>
+    <t>Changes</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -502,76 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,15 +518,91 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,7 +928,7 @@
   <dimension ref="A2:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,23 +966,23 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
@@ -983,18 +995,18 @@
       <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1004,12 +1016,12 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1017,12 +1029,11 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="41"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1030,12 +1041,11 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="41"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1045,12 +1055,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1058,12 +1067,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1071,12 +1079,11 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="41"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1084,12 +1091,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="41"/>
+      <c r="H12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1097,12 +1103,11 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
+      <c r="H13" s="17"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1110,12 +1115,11 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="41"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1123,12 +1127,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
@@ -1136,12 +1139,12 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="43"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1154,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1164,7 +1167,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1178,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1189,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -1208,7 +1211,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1218,17 +1221,17 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
@@ -1236,19 +1239,21 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
@@ -1256,15 +1261,15 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="2"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1274,15 +1279,15 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="2"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
@@ -1290,15 +1295,15 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="2"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
@@ -1306,15 +1311,15 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="2"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1322,15 +1327,15 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="2"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
@@ -1338,15 +1343,15 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="2"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="50"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1356,15 +1361,15 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="2"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="11" t="s">
         <v>32</v>
       </c>
@@ -1372,15 +1377,15 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="2"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1388,15 +1393,15 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -1404,15 +1409,15 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="2"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="11" t="s">
         <v>35</v>
       </c>
@@ -1420,15 +1425,15 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="2"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -1446,7 +1451,7 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
@@ -1462,7 +1467,7 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="12" t="s">
         <v>39</v>
       </c>
@@ -1478,7 +1483,7 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
@@ -1494,7 +1499,7 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -1512,7 +1517,7 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="13" t="s">
         <v>43</v>
       </c>
@@ -1528,7 +1533,7 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="13" t="s">
         <v>44</v>
       </c>
@@ -1544,7 +1549,7 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="13" t="s">
         <v>45</v>
       </c>
@@ -1734,7 +1739,6 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A6:A8"/>
@@ -1744,6 +1748,7 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A35"/>
+    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
